--- a/biology/Zoologie/John_Croxall/John_Croxall.xlsx
+++ b/biology/Zoologie/John_Croxall/John_Croxall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Patrick Croxall CBE FRS (né le 19 janvier 1946 à Birmingham) est un biologiste britannique [1] et est responsable de la biologie de la conservation au British Antarctic Survey[2]. Il est président du Global Seabird Programme de BirdLife International[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Patrick Croxall CBE FRS (né le 19 janvier 1946 à Birmingham) est un biologiste britannique  et est responsable de la biologie de la conservation au British Antarctic Survey. Il est président du Global Seabird Programme de BirdLife International.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Croxall obtient un doctorat à l'Université d'Auckland en 1971, sur l'écologie des ascidies[4]. Il est associé de recherche principal en zoologie à l'Université de Newcastle upon Tyne de 1972 à 1975. Il remporte une médaille scientifique en 1984, de la Société zoologique de Londres[5]. Il reçoit une médaille du président de la British Ecological Society[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Croxall obtient un doctorat à l'Université d'Auckland en 1971, sur l'écologie des ascidies. Il est associé de recherche principal en zoologie à l'Université de Newcastle upon Tyne de 1972 à 1975. Il remporte une médaille scientifique en 1984, de la Société zoologique de Londres. Il reçoit une médaille du président de la British Ecological Society.
 </t>
         </is>
       </c>
